--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\jmbeteta\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\jmbeteta\Desktop\excelC-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED4A090-7E4A-47F3-B9AE-49A92495B93F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3471235A-3B29-463A-AC5A-0AF9A6077FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Ayuntamiento de Murcia</t>
   </si>
@@ -49,53 +48,29 @@
     <t>Piso</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>S/N</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>N4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>N1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +99,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -154,14 +121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -184,39 +147,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="E8:I16" totalsRowCount="1">
-  <autoFilter ref="E8:I15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="E8:I10" totalsRowShown="0">
+  <autoFilter ref="E8:I10" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre" totalsRowFunction="custom">
-      <totalsRowFormula>ROWS(E10:E15)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos" totalsRowFunction="custom" dataCellStyle="Hipervínculo" totalsRowCellStyle="Hipervínculo">
-      <totalsRowFormula>ROWS(F10:F15)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Calle" totalsRowFunction="custom">
-      <totalsRowFormula>ROWS(G10:G15)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número" totalsRowFunction="custom">
-      <totalsRowFormula>ROWS(H10:H15)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Piso" totalsRowFunction="custom">
-      <totalsRowFormula>ROWS(I10:I15)</totalsRowFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{645F20DD-8C55-4F4B-AD1D-A43C411F69EA}" name="Tabla13" displayName="Tabla13" ref="D8:E16" totalsRowCount="1">
-  <autoFilter ref="D8:E15" xr:uid="{5EB129C4-2C6D-46CD-ACAD-6E46CEE32C01}"/>
-  <tableColumns count="2">
-    <tableColumn id="4" xr3:uid="{626DE1FD-6E8E-4605-ACAD-E7D6F860BD08}" name="Número" totalsRowFunction="custom">
-      <totalsRowFormula>ROWS(D10:D15)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{E638B4FD-9658-42C6-BD6A-28CC4F2C5D2A}" name="Piso" totalsRowFunction="custom">
-      <totalsRowFormula>ROWS(E10:E15)</totalsRowFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellidos" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Calle"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Piso"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:I16"/>
+  <dimension ref="D3:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,21 +468,21 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" ht="24.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="4:9" ht="24.75" x14ac:dyDescent="0.5">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="E6" s="7" t="s">
+    <row r="6" spans="4:9" ht="21" x14ac:dyDescent="0.35">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>2</v>
       </c>
@@ -561,146 +499,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f>ROWS(E10:E15)</f>
-        <v>6</v>
-      </c>
-      <c r="F16" s="1">
-        <f>ROWS(F10:F15)</f>
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <f>ROWS(G10:G15)</f>
-        <v>6</v>
-      </c>
-      <c r="H16">
-        <f>ROWS(H10:H15)</f>
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <f>ROWS(I10:I15)</f>
-        <v>6</v>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -716,96 +546,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C6CEC0-E10B-45D6-AF3B-E6798FB800A2}">
-  <dimension ref="D8:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <f>ROWS(D10:D15)</f>
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <f>ROWS(E10:E15)</f>
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\jmbeteta\Desktop\excelC-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3471235A-3B29-463A-AC5A-0AF9A6077FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B5959-E9B2-4CCD-8F58-6A332365AFE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1080" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Ayuntamiento de Murcia</t>
   </si>
@@ -64,6 +67,12 @@
   </si>
   <si>
     <t>N1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C5</t>
   </si>
 </sst>
 </file>
@@ -155,6 +164,29 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Calle"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Piso"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69892E33-73D1-47CD-B692-CB6D7EB3BDE6}" name="Tabla14" displayName="Tabla14" ref="C8:D10" totalsRowShown="0">
+  <autoFilter ref="C8:D10" xr:uid="{CDE4F134-5295-4A3D-997D-FB75A4BFCEB9}"/>
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{C9C70DFB-FABD-414F-BDF9-9A7B53A69C47}" name="Calle"/>
+    <tableColumn id="4" xr3:uid="{033665DE-A0D7-4590-8C80-F52B20A1B51C}" name="Número"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97C8DFC0-9C16-4218-845A-58ACC5104165}" name="Tabla13" displayName="Tabla13" ref="D7:F9" totalsRowShown="0">
+  <autoFilter ref="D7:F9" xr:uid="{F3AC55DF-9003-4FA1-B16D-EAD84B0F19A1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{392D39EE-F190-41F1-8805-50E510D10F71}" name="Nombre"/>
+    <tableColumn id="2" xr3:uid="{69583597-A78A-4FAE-B344-AA5042346D02}" name="Apellidos" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="3" xr3:uid="{44D00199-21E6-4A9F-AFE7-313953E03BDE}" name="Calle"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D3:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +533,7 @@
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -546,4 +578,120 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F520945C-8B1B-42E8-99AE-A795A4C48EF6}">
+  <dimension ref="C8:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55796AC0-4FC4-4B9C-ADDC-0F305159B2C7}">
+  <dimension ref="D7:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="#c2@" xr:uid="{229C8376-46DD-42C3-9F00-8F7D25DC50C1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CDCC4-B3A7-4015-BBBF-3F0F2BA0236C}">
+  <dimension ref="D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>